--- a/thesis/floodDispatch2.0/data/baseData/0典型输入数据.xlsx
+++ b/thesis/floodDispatch2.0/data/baseData/0典型输入数据.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\study\studyProjects\qrfGitRepository\thesis\floodDispatch2.0\data\baseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3197BA-91A3-44FA-A716-222954ED5173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A83B12-9DD2-423B-8029-310243DB10A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020h" sheetId="1" r:id="rId1"/>
+    <sheet name="2010h" sheetId="1" r:id="rId1"/>
     <sheet name="洪水1" sheetId="2" r:id="rId2"/>
     <sheet name="洪水2" sheetId="3" r:id="rId3"/>
     <sheet name="洪水3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,7 +255,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'2020h'!$D$2:$D$489</c:f>
+              <c:f>'2010h'!$D$2:$D$489</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="488"/>
@@ -3537,11 +3537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B388" sqref="B388"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScale="115" workbookViewId="0">
+      <selection activeCell="G429" sqref="G429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10975,11 +10975,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11847,11 +11847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D62" sqref="D62:F62"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12722,11 +12722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
